--- a/resultats_analyses_brut.xlsx
+++ b/resultats_analyses_brut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6d2936775fb277a/Documents/GitHub/piano_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_2B59D2BFD310DE78DA4111335F3088B35299F666" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2025A46A-96FB-4705-9546-7580E7FDD992}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="11_2B59D2BFD310DE78DA4111335F3088B35299F666" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F3202F5-2671-4373-91FB-3485318A0DC1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,6 +215,4733 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Résolution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$C$2:$C$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>8.6655371673541293</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.21433207828022041</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.4217794705703923</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.703345080271792E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.927302841743985E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.782926390567086E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.3117085634120189E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.1424972943717658E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$C$2:$C$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>8.6655371673541293</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.21433207828022041</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.4217794705703923</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.703345080271792E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.927302841743985E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.782926390567086E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.3117085634120189E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.1424972943717658E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1bit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2bit</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3bit</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4bit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6bit</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8bit</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16bit</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Original</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.0605090389687666E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7129472138726437E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1630476470648748E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4506280771843292E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.760927109043743E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.2729963611711341E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7085114724860639E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1963049254259357E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-252E-4D5F-81FA-EB82C095D17B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="673081760"/>
+        <c:axId val="673076960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="673081760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673076960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="673076960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+          <c:min val="-0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673081760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Contraste</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$E$2:$E$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>56.708007037017673</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.1148729773076611</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6163.3635142471639</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.43509806458418232</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.8393624265139151E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.4847464746881137E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.5467515872786934E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.6946959773889072E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$E$2:$E$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>56.708007037017673</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.1148729773076611</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6163.3635142471639</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.43509806458418232</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.8393624265139151E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.4847464746881137E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.5467515872786934E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.6946959773889072E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1bit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2bit</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3bit</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4bit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6bit</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8bit</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16bit</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Original</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.5185787397203242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48713649267431047</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3008875649617411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84125460834199339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99664287650032957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2075368967561431</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.247104557836721</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1463725191663381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5049-4976-9743-78696F084A33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="673081760"/>
+        <c:axId val="673076960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="673081760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673076960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="673076960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673081760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Résolution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$C$2:$C$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="34"/>
+                  <c:pt idx="0">
+                    <c:v>8.6655371673541293</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.21433207828022041</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.4217794705703923</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.703345080271792E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.927302841743985E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.782926390567086E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.3117085634120189E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.1424972943717658E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.561987077660055E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6.6196029834838634E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5.5588586099728108E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.240877849107216E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7.2199188779023399E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.660445813624554E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.569788218175169E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.7376242651869231E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5.6265635415925887E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.1865525364517641E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.4633726892396529E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>7.2199188779023399E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>6.2708977126458634E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2.660445813624554E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>5.1223253568207904E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>5.1449816286350796E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>4.3405438784577281E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.9112010235557229E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3.2131060975758578E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4.3928920940285556E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5.0560325303899258E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>1.1707361018264339E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2.2620623617538209E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2.8647679670289832E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>4.2226703881257438E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>1.904140971130563E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$C$2:$C$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="34"/>
+                  <c:pt idx="0">
+                    <c:v>8.6655371673541293</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.21433207828022041</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.4217794705703923</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.703345080271792E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.927302841743985E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.782926390567086E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.3117085634120189E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.1424972943717658E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.561987077660055E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6.6196029834838634E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5.5588586099728108E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.240877849107216E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7.2199188779023399E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.660445813624554E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.569788218175169E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.7376242651869231E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5.6265635415925887E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.1865525364517641E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.4633726892396529E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>7.2199188779023399E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>6.2708977126458634E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2.660445813624554E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>5.1223253568207904E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>5.1449816286350796E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>4.3405438784577281E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.9112010235557229E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3.2131060975758578E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4.3928920940285556E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5.0560325303899258E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>1.1707361018264339E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2.2620623617538209E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2.8647679670289832E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>4.2226703881257438E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>1.904140971130563E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>1bit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2bit</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3bit</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4bit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6bit</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8bit</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16bit</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Original</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>fs=44100-fbas=100-fhaut=1500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fs=1764-fbas=100-fhaut=1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>fs=882-fbas=100-fhaut=1500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>fs=44100-fbas=300-fhaut=1500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>fs=1764-fbas=300-fhaut=1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>fs=1470-fbas=300-fhaut=1500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>fs=882-fbas=300-fhaut=1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>fs=44100-fbas=300-fhaut=5000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>fs=4410-fbas=300-fhaut=5000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>fs=2205-fbas=300-fhaut=5000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>fs=2004-fbas=300-fhaut=5000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>fs=1764-fbas=300-fhaut=5000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>fs=1575-fbas=300-fhaut=5000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>fs=1470-fbas=300-fhaut=5000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>fs=4410-fbas=550-fhaut=1500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>fs=44100-fbas=550-fhaut=1500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>fs=1470-fbas=550-fhaut=1500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>fs=44100-fbas=1000-fhaut=5000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>fs=8820-fbas=1000-fhaut=5000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>fs=44100-fbas=700-fhaut=3000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>fs=4410-fbas=700-fhaut=3000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>fs=1917-fbas=700-fhaut=3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>fs=1837-fbas=700-fhaut=3000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>fs=1764-fbas=700-fhaut=3000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>fs=1696-fbas=700-fhaut=3000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>fs=1633-fbas=700-fhaut=3000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>7.0605090389687666E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7129472138726437E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1630476470648748E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4506280771843292E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.760927109043743E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.2729963611711341E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7085114724860639E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1963049254259357E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5207078771838561E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14008019853003001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1359359156353184</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7281203400341178E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13149688802845769</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.1500353625718133E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.9787843483854262E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.4260943742852809E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.251260613792929E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.12898704171209521</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2082368506555479E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13149688802845769</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0268293055413021E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.1500353625718133E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.9284011245115614E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.9135761952605872E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1395555730217064</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.0307627654170289E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.5579526116247079E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.3124708074139395E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.3435194202396876E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14807376918127929</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.1013201548350755</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.1052410771533718</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.1064351994706328</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.20336995929436669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A85-4421-8EFF-849E00765307}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="673081760"/>
+        <c:axId val="673076960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="673081760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673076960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="673076960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
+          <c:min val="-0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673081760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Contraste</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$C$2:$C$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="34"/>
+                  <c:pt idx="0">
+                    <c:v>8.6655371673541293</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.21433207828022041</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.4217794705703923</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.703345080271792E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.927302841743985E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.782926390567086E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.3117085634120189E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.1424972943717658E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.561987077660055E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6.6196029834838634E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5.5588586099728108E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.240877849107216E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7.2199188779023399E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.660445813624554E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.569788218175169E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.7376242651869231E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5.6265635415925887E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.1865525364517641E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.4633726892396529E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>7.2199188779023399E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>6.2708977126458634E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2.660445813624554E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>5.1223253568207904E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>5.1449816286350796E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>4.3405438784577281E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.9112010235557229E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3.2131060975758578E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4.3928920940285556E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5.0560325303899258E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>1.1707361018264339E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2.2620623617538209E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2.8647679670289832E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>4.2226703881257438E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>1.904140971130563E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$C$2:$C$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="34"/>
+                  <c:pt idx="0">
+                    <c:v>8.6655371673541293</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.21433207828022041</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.4217794705703923</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.703345080271792E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.927302841743985E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.782926390567086E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.3117085634120189E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.1424972943717658E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.561987077660055E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6.6196029834838634E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5.5588586099728108E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.240877849107216E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7.2199188779023399E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.660445813624554E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.569788218175169E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.7376242651869231E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5.6265635415925887E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.1865525364517641E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.4633726892396529E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>7.2199188779023399E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>6.2708977126458634E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2.660445813624554E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>5.1223253568207904E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>5.1449816286350796E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>4.3405438784577281E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.9112010235557229E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3.2131060975758578E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4.3928920940285556E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5.0560325303899258E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>1.1707361018264339E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2.2620623617538209E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2.8647679670289832E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>4.2226703881257438E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>1.904140971130563E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>1bit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2bit</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3bit</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4bit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6bit</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8bit</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16bit</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Original</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>fs=44100-fbas=100-fhaut=1500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fs=1764-fbas=100-fhaut=1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>fs=882-fbas=100-fhaut=1500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>fs=44100-fbas=300-fhaut=1500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>fs=1764-fbas=300-fhaut=1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>fs=1470-fbas=300-fhaut=1500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>fs=882-fbas=300-fhaut=1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>fs=44100-fbas=300-fhaut=5000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>fs=4410-fbas=300-fhaut=5000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>fs=2205-fbas=300-fhaut=5000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>fs=2004-fbas=300-fhaut=5000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>fs=1764-fbas=300-fhaut=5000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>fs=1575-fbas=300-fhaut=5000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>fs=1470-fbas=300-fhaut=5000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>fs=4410-fbas=550-fhaut=1500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>fs=44100-fbas=550-fhaut=1500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>fs=1470-fbas=550-fhaut=1500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>fs=44100-fbas=1000-fhaut=5000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>fs=8820-fbas=1000-fhaut=5000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>fs=44100-fbas=700-fhaut=3000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>fs=4410-fbas=700-fhaut=3000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>fs=1917-fbas=700-fhaut=3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>fs=1837-fbas=700-fhaut=3000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>fs=1764-fbas=700-fhaut=3000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>fs=1696-fbas=700-fhaut=3000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>fs=1633-fbas=700-fhaut=3000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.5185787397203242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48713649267431047</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3008875649617411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84125460834199339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99664287650032957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2075368967561431</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.247104557836721</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1463725191663381</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3364526529843099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97256348777364865</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9492183380110011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1484364879626101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.763510335048454</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.493694644301476</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.246818696085817</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4577853907010729</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.49574791842753</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95551606330098959</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.659578256238617</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.763510335048454</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2493296609574949</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.493694644301476</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.036646704777094</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0667710906170611</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.95432262344158</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.8740677299660643</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1763514449134751</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2347578263779451</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3061863604387229</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2006395115152699</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.121212461349155</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2001237754606151</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.157589564542381</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.53292613692191892</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E5A-4487-ACA7-205450EEF4DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="673081760"/>
+        <c:axId val="673076960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="673081760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673076960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="673076960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
+          <c:min val="-"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673081760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>243280</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>89362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>539697</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>136807</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28463198-C312-74AD-F0F1-489B764C8168}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>248661</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>49606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>545078</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>97052</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A0EADA-35A7-46BF-B323-7375D72F9198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>534737</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>122544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>218435</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>169989</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE7EDF1-6827-4207-99D0-45B13C824E7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>557017</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>240715</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>92005</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D7E330-BC33-4980-9D1D-DFF57045EE14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -506,8 +5233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,138 +5261,138 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <v>3.1963049254259357E-2</v>
+        <v>7.0605090389687666E-2</v>
       </c>
       <c r="C2">
-        <v>2.1424972943717658E-3</v>
+        <v>8.6655371673541293</v>
       </c>
       <c r="D2">
-        <v>1.1463725191663381</v>
+        <v>0.5185787397203242</v>
       </c>
       <c r="E2">
-        <v>3.6946959773889072E-2</v>
+        <v>56.708007037017673</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>7.0605090389687666E-2</v>
+        <v>3.7129472138726437E-2</v>
       </c>
       <c r="C3">
-        <v>8.6655371673541293</v>
+        <v>0.21433207828022041</v>
       </c>
       <c r="D3">
-        <v>0.5185787397203242</v>
+        <v>0.48713649267431047</v>
       </c>
       <c r="E3">
-        <v>56.708007037017673</v>
+        <v>2.1148729773076611</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>3.7129472138726437E-2</v>
+        <v>2.1630476470648748E-2</v>
       </c>
       <c r="C4">
-        <v>0.21433207828022041</v>
+        <v>4.4217794705703923</v>
       </c>
       <c r="D4">
-        <v>0.48713649267431047</v>
+        <v>1.3008875649617411</v>
       </c>
       <c r="E4">
-        <v>2.1148729773076611</v>
+        <v>6163.3635142471639</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>2.1630476470648748E-2</v>
+        <v>7.4506280771843292E-3</v>
       </c>
       <c r="C5">
-        <v>4.4217794705703923</v>
+        <v>2.703345080271792E-2</v>
       </c>
       <c r="D5">
-        <v>1.3008875649617411</v>
+        <v>0.84125460834199339</v>
       </c>
       <c r="E5">
-        <v>6163.3635142471639</v>
+        <v>0.43509806458418232</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>7.4506280771843292E-3</v>
+        <v>-2.760927109043743E-2</v>
       </c>
       <c r="C6">
-        <v>2.703345080271792E-2</v>
+        <v>3.927302841743985E-3</v>
       </c>
       <c r="D6">
-        <v>0.84125460834199339</v>
+        <v>0.99664287650032957</v>
       </c>
       <c r="E6">
-        <v>0.43509806458418232</v>
+        <v>8.8393624265139151E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>-2.760927109043743E-2</v>
+        <v>-8.2729963611711341E-3</v>
       </c>
       <c r="C7">
-        <v>3.927302841743985E-3</v>
+        <v>1.782926390567086E-3</v>
       </c>
       <c r="D7">
-        <v>0.99664287650032957</v>
+        <v>1.2075368967561431</v>
       </c>
       <c r="E7">
-        <v>8.8393624265139151E-2</v>
+        <v>4.4847464746881137E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>-8.2729963611711341E-3</v>
+        <v>1.7085114724860639E-2</v>
       </c>
       <c r="C8">
-        <v>1.782926390567086E-3</v>
+        <v>3.3117085634120189E-3</v>
       </c>
       <c r="D8">
-        <v>1.2075368967561431</v>
+        <v>1.247104557836721</v>
       </c>
       <c r="E8">
-        <v>4.4847464746881137E-2</v>
+        <v>8.5467515872786934E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B9">
-        <v>1.7085114724860639E-2</v>
+        <v>3.1963049254259357E-2</v>
       </c>
       <c r="C9">
-        <v>3.3117085634120189E-3</v>
+        <v>2.1424972943717658E-3</v>
       </c>
       <c r="D9">
-        <v>1.247104557836721</v>
+        <v>1.1463725191663381</v>
       </c>
       <c r="E9">
-        <v>8.5467515872786934E-2</v>
+        <v>3.6946959773889072E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1112,5 +5839,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>